--- a/storage/app/public/employees/excel-import/sample-excel-import.xlsx
+++ b/storage/app/public/employees/excel-import/sample-excel-import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\atm\code\simple-crm\storage\app\public\employees\excel-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AA6A3B-246E-4213-9CC2-7E602A236E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541B26B8-5C60-4529-983B-9B10E8ED280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,27 +51,18 @@
     <t>Mr. Khalil Muller IV</t>
   </si>
   <si>
-    <t>Esperanza King</t>
-  </si>
-  <si>
     <t>zbogan@example.net</t>
   </si>
   <si>
     <t>332.589.3850</t>
   </si>
   <si>
-    <t>Lavonne Pagac</t>
-  </si>
-  <si>
     <t>pjast@example.net</t>
   </si>
   <si>
     <t>830-804-1414</t>
   </si>
   <si>
-    <t>Ayla Champlin</t>
-  </si>
-  <si>
     <t>Theodore Murphy</t>
   </si>
   <si>
@@ -81,29 +72,38 @@
     <t>(971) 432-6175</t>
   </si>
   <si>
-    <t>Hassan Lehner</t>
-  </si>
-  <si>
     <t>catharine74@example.org</t>
   </si>
   <si>
     <t>+1.820.761.5755</t>
   </si>
   <si>
-    <t>Bette Donnelly</t>
-  </si>
-  <si>
     <t>bwyman@example.org</t>
   </si>
   <si>
     <t>856-681-2583</t>
+  </si>
+  <si>
+    <t>Sample Test1</t>
+  </si>
+  <si>
+    <t>Sample Test2</t>
+  </si>
+  <si>
+    <t>Sample Test4</t>
+  </si>
+  <si>
+    <t>Sample Test3</t>
+  </si>
+  <si>
+    <t>Sample Test5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -111,6 +111,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -134,10 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,7 +464,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -473,14 +478,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -507,16 +512,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -527,16 +532,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -546,17 +551,17 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -566,17 +571,17 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -586,17 +591,17 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -606,6 +611,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>